--- a/ttgood/backup2/result.xlsx
+++ b/ttgood/backup2/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17929" uniqueCount="11953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17940" uniqueCount="11963">
   <si>
     <t>2013-01-07 17:12:27</t>
   </si>
@@ -35880,6 +35880,36 @@
   <si>
     <t>女</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>本科毕业</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>在职初中教师</t>
+  </si>
+  <si>
+    <t>初三数学,初一初二数学,初中奥数,高一高二数学,高三数学,初三数学,</t>
+  </si>
+  <si>
+    <t>本人自数学教育专业本科毕业后一直在中学从事数学教学，有丰富的一线教学及辅导经验。另外，本人对不同层次的学生如何提高数学成绩进行了大量的研究，尤其是学习困难生和中等程度的学生，我会根据学生不同的水平和个性特点，因材施教，迅速提高学习成绩。本人为人和善，有耐心，有责任心，沟通表达能力强。从事数学教学多年，在这过程中积淀深厚的专业知识和教育理念与思想，有丰富辅导经验。了解.对于数学的学习，有自己的学习方法，有耐心对高中数学考点和难点了如指掌教学方法非常有针对性.善于与学生沟通帮助学生找到自己的不足之处；确保您的孩子成绩提高,教学经验丰富，上课生动形象，深入浅出，通俗易懂，能让学生在不知不觉中就把知识学好记牢。讲课全面系统有条理，并能保证每节课的教学质量。有多年初高中执教经验，熟知上海初、高中数学考点与命题规律。我相信，教学相长，没有教不好的学生，只有不会教的老师，学会利用学生的爱好，去分析每一个学生的性格，对症下药才是教学的成功之道，谢谢！</t>
+  </si>
+  <si>
+    <t>区优秀教师</t>
+  </si>
+  <si>
+    <t>上海，重点初中</t>
+  </si>
+  <si>
+    <t>中学高级教师</t>
   </si>
 </sst>
 </file>
@@ -36268,7 +36298,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q5969" sqref="Q5969"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -36353,6 +36383,45 @@
       </c>
       <c r="C2" t="s">
         <v>5699</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11953</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11954</v>
+      </c>
+      <c r="F2">
+        <v>1964</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11955</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11956</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11957</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11958</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11959</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11960</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11961</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11956</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>11962</v>
       </c>
       <c r="S2" t="s">
         <v>9344</v>
